--- a/data.xlsx
+++ b/data.xlsx
@@ -15,21 +15,609 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>洪七公</t>
-  </si>
-  <si>
-    <t>Fuck</t>
-  </si>
-  <si>
-    <t>清华南都</t>
-  </si>
-  <si>
-    <t>WDC</t>
-  </si>
-  <si>
-    <t>美人香草</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+  <si>
+    <t>ddqqsj</t>
+  </si>
+  <si>
+    <t>xuewxcom</t>
+  </si>
+  <si>
+    <t>xsyhs6</t>
+  </si>
+  <si>
+    <t>qjrjm888</t>
+  </si>
+  <si>
+    <t>yxmywx</t>
+  </si>
+  <si>
+    <t>zhaokuailela</t>
+  </si>
+  <si>
+    <t>mmd9977</t>
+  </si>
+  <si>
+    <t>uuliyou0902</t>
+  </si>
+  <si>
+    <t>we-fashion</t>
+  </si>
+  <si>
+    <t>hellodianying</t>
+  </si>
+  <si>
+    <t>cyj1965</t>
+  </si>
+  <si>
+    <t>ljbbjwx</t>
+  </si>
+  <si>
+    <t>zhuanyun100</t>
+  </si>
+  <si>
+    <t>vcardshow</t>
+  </si>
+  <si>
+    <t>scccar</t>
+  </si>
+  <si>
+    <t>av7870</t>
+  </si>
+  <si>
+    <t>push365</t>
+  </si>
+  <si>
+    <t>yunyingmeigong</t>
+  </si>
+  <si>
+    <t>linch_linqu</t>
+  </si>
+  <si>
+    <t>daodejing168</t>
+  </si>
+  <si>
+    <t>wuyejd</t>
+  </si>
+  <si>
+    <t>yizhi555</t>
+  </si>
+  <si>
+    <t>cj6952</t>
+  </si>
+  <si>
+    <t>buyi22</t>
+  </si>
+  <si>
+    <t>jindi66</t>
+  </si>
+  <si>
+    <t>shenyin55</t>
+  </si>
+  <si>
+    <t>shisankeji</t>
+  </si>
+  <si>
+    <t>lvbanyueban</t>
+  </si>
+  <si>
+    <t>xzs882</t>
+  </si>
+  <si>
+    <t>kangting0451</t>
+  </si>
+  <si>
+    <t>zuiying98</t>
+  </si>
+  <si>
+    <t>xiaommyaoaiai</t>
+  </si>
+  <si>
+    <t>hotpian</t>
+  </si>
+  <si>
+    <t>we_edu</t>
+  </si>
+  <si>
+    <t>zaipingding</t>
+  </si>
+  <si>
+    <t>meimeiye100</t>
+  </si>
+  <si>
+    <t>vvv349</t>
+  </si>
+  <si>
+    <t>qcgs88</t>
+  </si>
+  <si>
+    <t>mv22mv</t>
+  </si>
+  <si>
+    <t>nvzhuinan</t>
+  </si>
+  <si>
+    <t>ten_mins</t>
+  </si>
+  <si>
+    <t>xbt5678</t>
+  </si>
+  <si>
+    <t>wxspreading007</t>
+  </si>
+  <si>
+    <t>bj11010_</t>
+  </si>
+  <si>
+    <t>iyuanfoto</t>
+  </si>
+  <si>
+    <t>haose66</t>
+  </si>
+  <si>
+    <t>av6934</t>
+  </si>
+  <si>
+    <t>ysxo69</t>
+  </si>
+  <si>
+    <t>ikk234</t>
+  </si>
+  <si>
+    <t>hahaha5690</t>
+  </si>
+  <si>
+    <t>taofeiwang</t>
+  </si>
+  <si>
+    <t>bsbs981988</t>
+  </si>
+  <si>
+    <t>weijulishequn</t>
+  </si>
+  <si>
+    <t>eao12321</t>
+  </si>
+  <si>
+    <t>nhna98</t>
+  </si>
+  <si>
+    <t>xintai27</t>
+  </si>
+  <si>
+    <t>libao365</t>
+  </si>
+  <si>
+    <t>huikeihk</t>
+  </si>
+  <si>
+    <t>zhixueshangjie</t>
+  </si>
+  <si>
+    <t>yicuimeiguiyuan</t>
+  </si>
+  <si>
+    <t>vipy66</t>
+  </si>
+  <si>
+    <t>vipr009</t>
+  </si>
+  <si>
+    <t>vipr08</t>
+  </si>
+  <si>
+    <t>dyhg88</t>
+  </si>
+  <si>
+    <t>xdcg88</t>
+  </si>
+  <si>
+    <t>tt78199</t>
+  </si>
+  <si>
+    <t>wuyazi999</t>
+  </si>
+  <si>
+    <t>jiqiao889</t>
+  </si>
+  <si>
+    <t>ddmpcn</t>
+  </si>
+  <si>
+    <t>mmbikini</t>
+  </si>
+  <si>
+    <t>musicstar2014</t>
+  </si>
+  <si>
+    <t>foyuvip</t>
+  </si>
+  <si>
+    <t>yh-fssd</t>
+  </si>
+  <si>
+    <t>zsdb01</t>
+  </si>
+  <si>
+    <t>beiyi360</t>
+  </si>
+  <si>
+    <t>mcsj1688</t>
+  </si>
+  <si>
+    <t>abardeen1</t>
+  </si>
+  <si>
+    <t>tutu-xia</t>
+  </si>
+  <si>
+    <t>rszl55</t>
+  </si>
+  <si>
+    <t>bbx345</t>
+  </si>
+  <si>
+    <t>zzs539</t>
+  </si>
+  <si>
+    <t>cty-store</t>
+  </si>
+  <si>
+    <t>maidoushsh</t>
+  </si>
+  <si>
+    <t>gh_7496cc0fe3c1</t>
+  </si>
+  <si>
+    <t>fulishibei</t>
+  </si>
+  <si>
+    <t>zzs2018</t>
+  </si>
+  <si>
+    <t>duoweidou</t>
+  </si>
+  <si>
+    <t>dj-office</t>
+  </si>
+  <si>
+    <t>jiuwfx</t>
+  </si>
+  <si>
+    <t>wenyitalk</t>
+  </si>
+  <si>
+    <t>dotonight</t>
+  </si>
+  <si>
+    <t>radio-shilipu</t>
+  </si>
+  <si>
+    <t>pujunxincheng</t>
+  </si>
+  <si>
+    <t>hengfuxincheng</t>
+  </si>
+  <si>
+    <t>jtfish999</t>
+  </si>
+  <si>
+    <t>eee2004</t>
+  </si>
+  <si>
+    <t>nsyyx2014</t>
+  </si>
+  <si>
+    <t>spss5203344</t>
+  </si>
+  <si>
+    <t>zhitongshe</t>
+  </si>
+  <si>
+    <t>dabusc</t>
+  </si>
+  <si>
+    <t>xoxoda</t>
+  </si>
+  <si>
+    <t>boduo666</t>
+  </si>
+  <si>
+    <t>shensanf</t>
+  </si>
+  <si>
+    <t>shihuashish</t>
+  </si>
+  <si>
+    <t>siwenpiz</t>
+  </si>
+  <si>
+    <t>tangsengsss</t>
+  </si>
+  <si>
+    <t>tiancaixxmiao</t>
+  </si>
+  <si>
+    <t>wtujiang</t>
+  </si>
+  <si>
+    <t>wushuxinger</t>
+  </si>
+  <si>
+    <t>nightsiyu</t>
+  </si>
+  <si>
+    <t>xiaochouchp</t>
+  </si>
+  <si>
+    <t>xinljitang</t>
+  </si>
+  <si>
+    <t>xingzish</t>
+  </si>
+  <si>
+    <t>zhzhshi</t>
+  </si>
+  <si>
+    <t>thetruewords</t>
+  </si>
+  <si>
+    <t>zxhdmxian</t>
+  </si>
+  <si>
+    <t>eightpigj</t>
+  </si>
+  <si>
+    <t>zhuzhutixpy</t>
+  </si>
+  <si>
+    <t>zhuangxge</t>
+  </si>
+  <si>
+    <t>lengyebke</t>
+  </si>
+  <si>
+    <t>jianjings</t>
+  </si>
+  <si>
+    <t>bixiongdsai</t>
+  </si>
+  <si>
+    <t>baobidaren</t>
+  </si>
+  <si>
+    <t>qingbaochuax</t>
+  </si>
+  <si>
+    <t>qamlax</t>
+  </si>
+  <si>
+    <t>yihuwang2012</t>
+  </si>
+  <si>
+    <t>jiuweih818</t>
+  </si>
+  <si>
+    <t>miss8xj</t>
+  </si>
+  <si>
+    <t>taokeji01</t>
+  </si>
+  <si>
+    <t>dakaizj</t>
+  </si>
+  <si>
+    <t>kejily</t>
+  </si>
+  <si>
+    <t>kejiqiany</t>
+  </si>
+  <si>
+    <t>sgqh88</t>
+  </si>
+  <si>
+    <t>cdz788</t>
+  </si>
+  <si>
+    <t>gh_43076e0451fe</t>
+  </si>
+  <si>
+    <t>mda77</t>
+  </si>
+  <si>
+    <t>qrqs88</t>
+  </si>
+  <si>
+    <t>syzh77</t>
+  </si>
+  <si>
+    <t>rszl77</t>
+  </si>
+  <si>
+    <t>csw080</t>
+  </si>
+  <si>
+    <t>cdq600</t>
+  </si>
+  <si>
+    <t>xiongmaogbb</t>
+  </si>
+  <si>
+    <t>liusangeng333</t>
+  </si>
+  <si>
+    <t>donkey-moo</t>
+  </si>
+  <si>
+    <t>av88xx</t>
+  </si>
+  <si>
+    <t>kingmac01</t>
+  </si>
+  <si>
+    <t>qunlihuazx</t>
+  </si>
+  <si>
+    <t>xidianjunx</t>
+  </si>
+  <si>
+    <t>mv5177</t>
+  </si>
+  <si>
+    <t>xiaofan498</t>
+  </si>
+  <si>
+    <t>byzr01</t>
+  </si>
+  <si>
+    <t>weiletter1984</t>
+  </si>
+  <si>
+    <t>zhurun2013</t>
+  </si>
+  <si>
+    <t>xingwendbg</t>
+  </si>
+  <si>
+    <t>zhangxilei6666</t>
+  </si>
+  <si>
+    <t>nageyehesh</t>
+  </si>
+  <si>
+    <t>naocandhua</t>
+  </si>
+  <si>
+    <t>naojingjizhuan</t>
+  </si>
+  <si>
+    <t>wejeunesse</t>
+  </si>
+  <si>
+    <t>pizishifu</t>
+  </si>
+  <si>
+    <t>batinsh</t>
+  </si>
+  <si>
+    <t>juanzi46977127</t>
+  </si>
+  <si>
+    <t>cynews8</t>
+  </si>
+  <si>
+    <t>zhongqingyilu</t>
+  </si>
+  <si>
+    <t>fushihui1</t>
+  </si>
+  <si>
+    <t>hongxiu365</t>
+  </si>
+  <si>
+    <t>sbsb53</t>
+  </si>
+  <si>
+    <t>shyszl</t>
+  </si>
+  <si>
+    <t>yfsp666</t>
+  </si>
+  <si>
+    <t>mrjnxhz</t>
+  </si>
+  <si>
+    <t>mrjnbpl</t>
+  </si>
+  <si>
+    <t>yehl888</t>
+  </si>
+  <si>
+    <t>meililadys</t>
+  </si>
+  <si>
+    <t>yfzysx</t>
+  </si>
+  <si>
+    <t>ksss888</t>
+  </si>
+  <si>
+    <t>ricky_wing</t>
+  </si>
+  <si>
+    <t>l-stock</t>
+  </si>
+  <si>
+    <t>jz20000g</t>
+  </si>
+  <si>
+    <t>zzq1314315</t>
+  </si>
+  <si>
+    <t>ubskinchina</t>
+  </si>
+  <si>
+    <t>ok1815</t>
+  </si>
+  <si>
+    <t>jackd567</t>
+  </si>
+  <si>
+    <t>xfj555</t>
+  </si>
+  <si>
+    <t>gh_d4899aae40ac</t>
+  </si>
+  <si>
+    <t>gh_b905daad9105</t>
+  </si>
+  <si>
+    <t>gh_b52c5c3b78cd</t>
+  </si>
+  <si>
+    <t>a19219</t>
+  </si>
+  <si>
+    <t>gh_0686d63d5981</t>
+  </si>
+  <si>
+    <t>gh_df06faf99a81</t>
+  </si>
+  <si>
+    <t>gh_ce189eec96101</t>
+  </si>
+  <si>
+    <t>gh_203c06c5419c</t>
+  </si>
+  <si>
+    <t>kans368</t>
+  </si>
+  <si>
+    <t>jiayf000</t>
+  </si>
+  <si>
+    <t>se43210</t>
+  </si>
+  <si>
+    <t>nai369</t>
+  </si>
+  <si>
+    <t>dfsws52</t>
+  </si>
+  <si>
+    <t>yaya2699</t>
+  </si>
+  <si>
+    <t>zhyousj</t>
+  </si>
+  <si>
+    <t>zhumiandazher</t>
+  </si>
+  <si>
+    <t>tezhongbing3</t>
+  </si>
+  <si>
+    <t>iihuawei</t>
   </si>
 </sst>
 </file>
@@ -39,7 +627,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -66,11 +654,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,16 +698,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,10 +724,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D1:D7"/>
+  <dimension ref="D1:D203"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -160,7 +739,7 @@
       <c r="D1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -170,7 +749,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -180,8 +759,988 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D134" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D153" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D154" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D155" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D159" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D161" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D162" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D163" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D164" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D165" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D166" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D167" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D170" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D171" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D173" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D175" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D176" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D177" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D178" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D179" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D180" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D181" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D182" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D183" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D184" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D185" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D186" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D187" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D189" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D190" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D191" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D192" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D193" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D194" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D195" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D196" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D198" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D199" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D201" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D203" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
